--- a/Data/Graphs/processed.xlsx
+++ b/Data/Graphs/processed.xlsx
@@ -8,14 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yaxar/Desktop/AI_Final/Data/Graphs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5A40DA32-043D-C344-8FFE-714CC0E2EE33}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{D5526591-1FB2-E54E-9536-4844B9BB9B34}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11580" yWindow="5460" windowWidth="28040" windowHeight="17440"/>
+    <workbookView xWindow="4380" yWindow="7180" windowWidth="40680" windowHeight="17440"/>
   </bookViews>
   <sheets>
     <sheet name="Untitled" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -25,7 +32,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -159,6 +166,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFEDEDED"/>
+      <name val="Monaco"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="33">
@@ -502,8 +515,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -560,6 +575,5762 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Original 3 Neuron</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Untitled!$A$5:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-2.2870263393137802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2498605052413301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.73394884328006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Untitled!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.95760858572296403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.62640380462002199</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0875072556668499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A53C-E04F-8C33-C919748B7EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="999004383"/>
+        <c:axId val="998810815"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="999004383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="998810815"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="998810815"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="999004383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Original 7 Neuron</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Untitled!$A$9:$A$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-2.4022423317049499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.56654377409490997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.41624756990148</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-2.1652026352522902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.18069304728413699</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.29653979307562</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.66124248819432</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Untitled!$B$9:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.96943480562171902</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.20802880523749701</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.93946991529223101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.93342807635514902</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-6.2889498561040799E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.64690795319968297</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.06731344783329</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A932-B645-9F70-374CA154D2AD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="979727455"/>
+        <c:axId val="930567039"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="979727455"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="930567039"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="930567039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="979727455"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Original 2 Neuron</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Untitled!$A$1:$A$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-2.2870263393137802</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5079774701462201</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Untitled!$B$1:$B$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.95760858572296403</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.87342144411904199</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A80-5743-864A-249FBBA663FF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1001805471"/>
+        <c:axId val="1001827183"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1001805471"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001827183"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1001827183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1001805471"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalized 7 Neuron</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Untitled!$A$25:$A$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.92218504036773596</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.997847235596939</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.86662446125396297</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.96141124199905903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.28320870530567299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.69032806379422196</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.92218504036773596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Untitled!$B$25:$B$31</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>-0.36674895128746798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.5581204712519894E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.49896096355955299</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.27511529175570199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.95905830335756104</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.723496485366805</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.39674895128746801</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7D89-0645-86C8-0D692AB0CF02}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1024551967"/>
+        <c:axId val="923373615"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1024551967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="923373615"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="923373615"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1024551967"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalized 3 Neuron</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Untitled!$A$21:$A$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.91241069953213905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86876675291858196</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.69032806379422196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Untitled!$B$21:$B$23</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>-0.40927584265293798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495221494912431</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.723496485366805</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-30B2-8942-B666-0D321F4E3F6E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1002183791"/>
+        <c:axId val="979670975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1002183791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="979670975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="979670975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002183791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Normalized 2 Neuron</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="3"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Untitled!$A$21:$A$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.91241069953213905</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86876675291858196</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Untitled!$B$21:$B$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>-0.40927584265293798</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.495221494912431</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3982-B34D-BCF8-1DADF136C173}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1002183791"/>
+        <c:axId val="979670975"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1002183791"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:noFill/>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="979670975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="979670975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1002183791"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>819150</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>44450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>146050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB3DC239-9D64-734B-9B4F-28DA4113F762}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>806450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>120650</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F41D834-21EC-084E-BFDF-2E7546867343}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>6350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70A49C57-CB56-7F42-9CE3-A70F3862CA4F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>425450</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>107950</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>44450</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="11" name="Chart 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F8141EC6-06DE-E542-880E-7348AB159BAC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="12" name="Chart 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{272E2D5F-6F91-984C-8FE7-516DA9C1A109}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>63500</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="13" name="Chart 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FE94876-3D07-A642-8D50-87647FE67FBB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -859,207 +6630,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
-        <v>2.2870263393137802</v>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>-2.2870263393137802</v>
       </c>
       <c r="B1">
-        <v>0.95760858572296403</v>
+        <v>-0.95760858572296403</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
         <v>1.5079774701462201</v>
       </c>
       <c r="B2">
         <v>0.87342144411904199</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2.2870263393137802</v>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>-2.2870263393137802</v>
       </c>
-      <c r="B4">
-        <v>0.95760858572296403</v>
+      <c r="B5">
+        <v>-0.95760858572296403</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>1.2498605052413301</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>0.62640380462002199</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
         <v>1.73394884328006</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>1.0875072556668499</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2.4022423317049499</v>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>-2.4022423317049499</v>
       </c>
-      <c r="B8">
-        <v>0.96943480562171902</v>
+      <c r="B9">
+        <v>-0.96943480562171902</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
         <v>0.56654377409490997</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>0.20802880523749701</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
         <v>2.41624756990148</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>0.93946991529223101</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2.1652026352522902</v>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>-2.1652026352522902</v>
       </c>
-      <c r="B11">
-        <v>0.93342807635514902</v>
+      <c r="B12">
+        <v>-0.93342807635514902</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>0.18069304728413699</v>
+    <row r="13" spans="1:6" ht="21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>-0.18069304728413699</v>
       </c>
-      <c r="B12">
-        <v>6.2889498561040799E-2</v>
+      <c r="B13">
+        <v>-6.2889498561040799E-2</v>
       </c>
+      <c r="F13" s="1"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
         <v>1.29653979307562</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>0.64690795319968297</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
         <v>1.66124248819432</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>1.06731344783329</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>0.91241069953213905</v>
-      </c>
-      <c r="B17">
-        <v>0.40927584265293798</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
+        <v>-0.91241069953213905</v>
+      </c>
+      <c r="B18">
+        <v>-0.40927584265293798</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
         <v>0.86876675397200798</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>0.49522149306440499</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>0.91241069953213905</v>
-      </c>
-      <c r="B20">
-        <v>0.40927584265293798</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>0.86876675291858196</v>
+        <v>-0.91241069953213905</v>
       </c>
       <c r="B21">
-        <v>0.495221494912431</v>
+        <v>-0.40927584265293798</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
+        <v>0.86876675291858196</v>
+      </c>
+      <c r="B22">
+        <v>0.495221494912431</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
         <v>0.69032806379422196</v>
       </c>
-      <c r="B22">
-        <v>0.723496485366805</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>0.84279866471571996</v>
-      </c>
-      <c r="B24">
-        <v>0.53822895755746802</v>
+      <c r="B23">
+        <v>-0.723496485366805</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>0.997847235596939</v>
+        <v>-0.92218504036773596</v>
       </c>
       <c r="B25">
-        <v>6.5581204712519894E-2</v>
+        <v>-0.36674895128746798</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>0.86662446125396297</v>
+        <v>0.997847235596939</v>
       </c>
       <c r="B26">
-        <v>0.49896096355955299</v>
+        <v>6.5581204712519894E-2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>0.96141124199905903</v>
+        <v>0.86662446125396297</v>
       </c>
       <c r="B27">
-        <v>0.27511529175570199</v>
+        <v>0.49896096355955299</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>0.28320870530567299</v>
+        <v>0.96141124199905903</v>
       </c>
       <c r="B28">
-        <v>0.95905830335756104</v>
+        <v>0.27511529175570199</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>0.69032806379422196</v>
+        <v>-0.28320870530567299</v>
       </c>
       <c r="B29">
-        <v>0.723496485366805</v>
+        <v>-0.95905830335756104</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>0.92218504036773596</v>
+        <v>0.69032806379422196</v>
       </c>
       <c r="B30">
-        <v>0.386748951287468</v>
+        <v>-0.723496485366805</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>-0.92218504036773596</v>
+      </c>
+      <c r="B31">
+        <v>-0.39674895128746801</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>